--- a/TestChecklist1.xlsx
+++ b/TestChecklist1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722E1B57-35A5-4333-BCC4-6E747C3AFC3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3CAB9-379C-4BB7-A6F1-D0ED8F3FB0EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelCreationTest" sheetId="1" r:id="rId1"/>
     <sheet name="ModelGameOverTest" sheetId="3" r:id="rId2"/>
     <sheet name="ModelRoundTest" sheetId="5" r:id="rId3"/>
+    <sheet name="ModelValidMoveTest" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>Name of Test</t>
   </si>
@@ -237,6 +238,48 @@
   </si>
   <si>
     <t>testCallbackWithIllegalMoveNotInGivenMovesWillThrow</t>
+  </si>
+  <si>
+    <t>testDetectiveAt128MovesShouldProduce13ValidMoves</t>
+  </si>
+  <si>
+    <t>testDetectiveMovesOmittedIfNotEnoughTicket</t>
+  </si>
+  <si>
+    <t>testDetectiveWithNoValidMovesShouldProducePassMove</t>
+  </si>
+  <si>
+    <t>testDetectiveMoveOmittedIfLocationOccupiedByOtherDetective</t>
+  </si>
+  <si>
+    <t>testDetectiveMoveNotOmittedIfDestinationOccupiedByMrX</t>
+  </si>
+  <si>
+    <t>testMrXDoubleMoveIntermediateMovesOmittedIfDestinationOccupiedByDetectives</t>
+  </si>
+  <si>
+    <t>testMrXMovesOmittedIfDestinationOccupiedByDetectives</t>
+  </si>
+  <si>
+    <t>testMrXMustHaveEnoughTicketsForDoubleMove</t>
+  </si>
+  <si>
+    <t>testMrXNoSecretMovesIfNoSecretMoveTickets</t>
+  </si>
+  <si>
+    <t>testMrXNoDoubleMovesIfNoDoubleMoveTickets</t>
+  </si>
+  <si>
+    <t>testMrXNoDoubleMovesIfNotEnoughRoundLeft</t>
+  </si>
+  <si>
+    <t>testMrXNoTicketMovesIfNoTicketMoveTickets</t>
+  </si>
+  <si>
+    <t>testMrXOnlySecretMovesIfOnlySecretMoveTicketsLeft</t>
+  </si>
+  <si>
+    <t>testMrXAt104ShouldProduce60ValidMoves</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38004FD-14FD-4A75-8BBE-FB1204A63269}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1195,7 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1204,6 +1247,120 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C344B3AF-B031-42E0-866F-920F2A9CC4A2}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestChecklist1.xlsx
+++ b/TestChecklist1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3CAB9-379C-4BB7-A6F1-D0ED8F3FB0EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D1FEF7-5BF9-4379-9929-69EEE1D2F64A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,19 +1312,19 @@
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1342,7 +1342,7 @@
       <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1354,13 +1354,13 @@
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestChecklist1.xlsx
+++ b/TestChecklist1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimch\repos\javacoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D1FEF7-5BF9-4379-9929-69EEE1D2F64A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C8911-AFB8-44FC-A3F2-3212360DA981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0041EFBC-3A8B-4E83-BF28-3AA19FCA3A85}"/>
   </bookViews>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
